--- a/src/main/resources/courtLocationData/CourtLocationForTasks.xlsx
+++ b/src/main/resources/courtLocationData/CourtLocationForTasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DrummondM\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0D4E719-5744-4D7B-A46A-39B546A110AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A693C09E-42F4-4FED-8D38-34F8118668AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4476" yWindow="1944" windowWidth="22224" windowHeight="15024" xr2:uid="{EAE23C36-3623-44C2-8391-4D7FF5C0971F}"/>
+    <workbookView xWindow="20400" yWindow="492" windowWidth="22224" windowHeight="15024" xr2:uid="{EAE23C36-3623-44C2-8391-4D7FF5C0971F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
     <t>caseManagementLocation</t>
   </si>
   <si>
-    <t>Multi</t>
-  </si>
-  <si>
-    <t>Intermediate</t>
-  </si>
-  <si>
     <t>CMC</t>
   </si>
   <si>
@@ -483,6 +477,12 @@
   </si>
   <si>
     <t>Stoke CTSC</t>
+  </si>
+  <si>
+    <t>MULTI_CLAIM</t>
+  </si>
+  <si>
+    <t>INTERMEDIATE_CLAIM</t>
   </si>
 </sst>
 </file>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{550B2871-CB02-4921-A32C-A2E71E0C70AE}">
   <dimension ref="A1:G281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="B285" sqref="B285"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,36 +894,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>827534</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D2">
         <v>827534</v>
@@ -940,13 +940,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>827534</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D3">
         <v>827534</v>
@@ -963,13 +963,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>450049</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D4">
         <v>450049</v>
@@ -986,13 +986,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>450049</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D5">
         <v>450049</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>229786</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D6">
         <v>739514</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>229786</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D7">
         <v>739514</v>
@@ -1055,13 +1055,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>574546</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D8">
         <v>574546</v>
@@ -1078,13 +1078,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>574546</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D9">
         <v>574546</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>774335</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D10">
         <v>339463</v>
@@ -1124,13 +1124,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>774335</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D11">
         <v>339463</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>761518</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D12">
         <v>761518</v>
@@ -1170,13 +1170,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>761518</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D13">
         <v>761518</v>
@@ -1193,13 +1193,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>694840</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D14">
         <v>816875</v>
@@ -1216,13 +1216,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>694840</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D15">
         <v>816875</v>
@@ -1239,13 +1239,13 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>457273</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D16">
         <v>457273</v>
@@ -1262,13 +1262,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>457273</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D17">
         <v>457273</v>
@@ -1285,13 +1285,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>411234</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D18">
         <v>411234</v>
@@ -1308,13 +1308,13 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>411234</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D19">
         <v>411234</v>
@@ -1331,13 +1331,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>446255</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D20">
         <v>365554</v>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>446255</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D21">
         <v>365554</v>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>444097</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D22">
         <v>444097</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B23">
         <v>444097</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D23">
         <v>444097</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>231596</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D24">
         <v>231596</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B25">
         <v>231596</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D25">
         <v>231596</v>
@@ -1469,13 +1469,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>214320</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D26">
         <v>214320</v>
@@ -1492,13 +1492,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>214320</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D27">
         <v>214320</v>
@@ -1515,13 +1515,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <v>304576</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D28">
         <v>304576</v>
@@ -1538,13 +1538,13 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29">
         <v>304576</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D29">
         <v>304576</v>
@@ -1561,13 +1561,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>271813</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D30">
         <v>339463</v>
@@ -1584,13 +1584,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>271813</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D31">
         <v>339463</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>117667</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D32">
         <v>117667</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33">
         <v>117667</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D33">
         <v>117667</v>
@@ -1653,13 +1653,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>101633</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D34">
         <v>101633</v>
@@ -1676,13 +1676,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>101633</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D35">
         <v>101633</v>
@@ -1699,13 +1699,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>88516</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D36">
         <v>88516</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B37">
         <v>88516</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D37">
         <v>88516</v>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B38">
         <v>36791</v>
       </c>
       <c r="C38" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D38">
         <v>36791</v>
@@ -1768,13 +1768,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B39">
         <v>36791</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D39">
         <v>36791</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B40">
         <v>478896</v>
       </c>
       <c r="C40" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D40">
         <v>478896</v>
@@ -1814,13 +1814,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B41">
         <v>478896</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D41">
         <v>478896</v>
@@ -1837,13 +1837,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B42">
         <v>819890</v>
       </c>
       <c r="C42" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D42">
         <v>819890</v>
@@ -1860,13 +1860,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B43">
         <v>819890</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D43">
         <v>819890</v>
@@ -1883,13 +1883,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B44">
         <v>29656</v>
       </c>
       <c r="C44" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D44">
         <v>29656</v>
@@ -1906,13 +1906,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45">
         <v>29656</v>
       </c>
       <c r="C45" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D45">
         <v>29656</v>
@@ -1929,13 +1929,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B46">
         <v>448747</v>
       </c>
       <c r="C46" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D46">
         <v>448747</v>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B47">
         <v>448747</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D47">
         <v>448747</v>
@@ -1975,13 +1975,13 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B48">
         <v>257431</v>
       </c>
       <c r="C48" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D48">
         <v>471332</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B49">
         <v>257431</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D49">
         <v>471332</v>
@@ -2021,13 +2021,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B50">
         <v>366572</v>
       </c>
       <c r="C50" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D50">
         <v>637145</v>
@@ -2044,13 +2044,13 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B51">
         <v>366572</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D51">
         <v>637145</v>
@@ -2067,13 +2067,13 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B52">
         <v>650344</v>
       </c>
       <c r="C52" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D52">
         <v>471569</v>
@@ -2090,13 +2090,13 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B53">
         <v>650344</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D53">
         <v>471569</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B54">
         <v>259679</v>
       </c>
       <c r="C54" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D54">
         <v>259679</v>
@@ -2136,13 +2136,13 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B55">
         <v>259679</v>
       </c>
       <c r="C55" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D55">
         <v>259679</v>
@@ -2159,13 +2159,13 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B56">
         <v>234850</v>
       </c>
       <c r="C56" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D56">
         <v>234850</v>
@@ -2182,13 +2182,13 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B57">
         <v>234850</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D57">
         <v>234850</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B58">
         <v>45106</v>
       </c>
       <c r="C58" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D58">
         <v>45106</v>
@@ -2228,13 +2228,13 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B59">
         <v>45106</v>
       </c>
       <c r="C59" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D59">
         <v>45106</v>
@@ -2251,13 +2251,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B60">
         <v>101959</v>
       </c>
       <c r="C60" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D60">
         <v>234946</v>
@@ -2274,13 +2274,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>101959</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D61">
         <v>234946</v>
@@ -2297,13 +2297,13 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>20262</v>
       </c>
       <c r="C62" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D62">
         <v>20262</v>
@@ -2320,13 +2320,13 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B63">
         <v>20262</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D63">
         <v>20262</v>
@@ -2343,13 +2343,13 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B64">
         <v>816875</v>
       </c>
       <c r="C64" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D64">
         <v>816875</v>
@@ -2366,13 +2366,13 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B65">
         <v>816875</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D65">
         <v>816875</v>
@@ -2389,13 +2389,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B66">
         <v>226511</v>
       </c>
       <c r="C66" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D66">
         <v>226511</v>
@@ -2412,13 +2412,13 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B67">
         <v>226511</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D67">
         <v>226511</v>
@@ -2435,13 +2435,13 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B68">
         <v>652852</v>
       </c>
       <c r="C68" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D68">
         <v>652852</v>
@@ -2458,13 +2458,13 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B69">
         <v>652852</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D69">
         <v>652852</v>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B70">
         <v>739514</v>
       </c>
       <c r="C70" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D70">
         <v>739514</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B71">
         <v>739514</v>
       </c>
       <c r="C71" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D71">
         <v>739514</v>
@@ -2527,13 +2527,13 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B72">
         <v>497679</v>
       </c>
       <c r="C72" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D72">
         <v>497679</v>
@@ -2550,13 +2550,13 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B73">
         <v>497679</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D73">
         <v>497679</v>
@@ -2573,13 +2573,13 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B74">
         <v>566296</v>
       </c>
       <c r="C74" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D74">
         <v>566296</v>
@@ -2596,13 +2596,13 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B75">
         <v>566296</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D75">
         <v>566296</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B76">
         <v>407494</v>
       </c>
       <c r="C76" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D76">
         <v>407494</v>
@@ -2642,13 +2642,13 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B77">
         <v>407494</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D77">
         <v>407494</v>
@@ -2665,13 +2665,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B78">
         <v>288691</v>
       </c>
       <c r="C78" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D78">
         <v>288691</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B79">
         <v>288691</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D79">
         <v>288691</v>
@@ -2711,13 +2711,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B80">
         <v>194172</v>
       </c>
       <c r="C80" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D80">
         <v>259679</v>
@@ -2734,13 +2734,13 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B81">
         <v>194172</v>
       </c>
       <c r="C81" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D81">
         <v>259679</v>
@@ -2757,13 +2757,13 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B82">
         <v>201339</v>
       </c>
       <c r="C82" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D82">
         <v>201339</v>
@@ -2780,13 +2780,13 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B83">
         <v>201339</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D83">
         <v>201339</v>
@@ -2803,13 +2803,13 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B84">
         <v>640119</v>
       </c>
       <c r="C84" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D84">
         <v>640119</v>
@@ -2826,13 +2826,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B85">
         <v>640119</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D85">
         <v>640119</v>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86">
         <v>45900</v>
       </c>
       <c r="C86" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D86">
         <v>45900</v>
@@ -2872,13 +2872,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B87">
         <v>45900</v>
       </c>
       <c r="C87" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D87">
         <v>45900</v>
@@ -2895,13 +2895,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B88">
         <v>758998</v>
       </c>
       <c r="C88" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D88">
         <v>758998</v>
@@ -2918,13 +2918,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B89">
         <v>758998</v>
       </c>
       <c r="C89" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D89">
         <v>758998</v>
@@ -2941,13 +2941,13 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B90">
         <v>491107</v>
       </c>
       <c r="C90" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D90">
         <v>491107</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B91">
         <v>491107</v>
       </c>
       <c r="C91" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D91">
         <v>491107</v>
@@ -2987,13 +2987,13 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B92">
         <v>25463</v>
       </c>
       <c r="C92" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D92">
         <v>25463</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B93">
         <v>25463</v>
       </c>
       <c r="C93" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D93">
         <v>25463</v>
@@ -3033,13 +3033,13 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B94">
         <v>735217</v>
       </c>
       <c r="C94" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D94">
         <v>339463</v>
@@ -3056,13 +3056,13 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B95">
         <v>735217</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D95">
         <v>339463</v>
@@ -3079,13 +3079,13 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B96">
         <v>427519</v>
       </c>
       <c r="C96" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D96">
         <v>427519</v>
@@ -3102,13 +3102,13 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B97">
         <v>427519</v>
       </c>
       <c r="C97" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D97">
         <v>427519</v>
@@ -3125,13 +3125,13 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B98">
         <v>198592</v>
       </c>
       <c r="C98" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D98">
         <v>198592</v>
@@ -3148,13 +3148,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B99">
         <v>198592</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D99">
         <v>198592</v>
@@ -3171,13 +3171,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B100">
         <v>478126</v>
       </c>
       <c r="C100" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D100">
         <v>478126</v>
@@ -3194,13 +3194,13 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B101">
         <v>478126</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D101">
         <v>478126</v>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B102">
         <v>568484</v>
       </c>
       <c r="C102" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D102">
         <v>568484</v>
@@ -3240,13 +3240,13 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B103">
         <v>568484</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D103">
         <v>568484</v>
@@ -3263,13 +3263,13 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B104">
         <v>505683</v>
       </c>
       <c r="C104" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D104">
         <v>505683</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B105">
         <v>505683</v>
       </c>
       <c r="C105" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D105">
         <v>505683</v>
@@ -3309,13 +3309,13 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B106">
         <v>784691</v>
       </c>
       <c r="C106" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D106">
         <v>784691</v>
@@ -3332,13 +3332,13 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B107">
         <v>784691</v>
       </c>
       <c r="C107" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D107">
         <v>784691</v>
@@ -3355,13 +3355,13 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B108">
         <v>700596</v>
       </c>
       <c r="C108" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D108">
         <v>700596</v>
@@ -3378,13 +3378,13 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B109">
         <v>700596</v>
       </c>
       <c r="C109" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D109">
         <v>700596</v>
@@ -3401,13 +3401,13 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B110">
         <v>228883</v>
       </c>
       <c r="C110" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D110">
         <v>102050</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B111">
         <v>228883</v>
       </c>
       <c r="C111" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D111">
         <v>102050</v>
@@ -3447,13 +3447,13 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B112">
         <v>256913</v>
       </c>
       <c r="C112" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D112">
         <v>256913</v>
@@ -3470,13 +3470,13 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B113">
         <v>256913</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D113">
         <v>256913</v>
@@ -3493,13 +3493,13 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B114">
         <v>437303</v>
       </c>
       <c r="C114" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D114">
         <v>185657</v>
@@ -3516,13 +3516,13 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B115">
         <v>437303</v>
       </c>
       <c r="C115" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D115">
         <v>185657</v>
@@ -3539,13 +3539,13 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B116">
         <v>317442</v>
       </c>
       <c r="C116" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D116">
         <v>317442</v>
@@ -3562,13 +3562,13 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B117">
         <v>317442</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D117">
         <v>317442</v>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B118">
         <v>197852</v>
       </c>
       <c r="C118" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D118">
         <v>197852</v>
@@ -3608,13 +3608,13 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B119">
         <v>197852</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D119">
         <v>197852</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B120">
         <v>471349</v>
       </c>
       <c r="C120" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D120">
         <v>471332</v>
@@ -3654,13 +3654,13 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B121">
         <v>471349</v>
       </c>
       <c r="C121" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D121">
         <v>471332</v>
@@ -3677,13 +3677,13 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B122">
         <v>195520</v>
       </c>
       <c r="C122" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D122">
         <v>195520</v>
@@ -3700,13 +3700,13 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B123">
         <v>195520</v>
       </c>
       <c r="C123" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D123">
         <v>195520</v>
@@ -3723,13 +3723,13 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B124">
         <v>13660</v>
       </c>
       <c r="C124" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D124">
         <v>13660</v>
@@ -3746,13 +3746,13 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B125">
         <v>13660</v>
       </c>
       <c r="C125" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D125">
         <v>13660</v>
@@ -3769,13 +3769,13 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B126">
         <v>353615</v>
       </c>
       <c r="C126" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D126">
         <v>353615</v>
@@ -3792,13 +3792,13 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B127">
         <v>353615</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D127">
         <v>353615</v>
@@ -3815,13 +3815,13 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B128">
         <v>455174</v>
       </c>
       <c r="C128" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D128">
         <v>455174</v>
@@ -3838,13 +3838,13 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B129">
         <v>455174</v>
       </c>
       <c r="C129" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D129">
         <v>455174</v>
@@ -3861,13 +3861,13 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B130">
         <v>223503</v>
       </c>
       <c r="C130" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D130">
         <v>223503</v>
@@ -3884,13 +3884,13 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B131">
         <v>223503</v>
       </c>
       <c r="C131" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D131">
         <v>223503</v>
@@ -3907,13 +3907,13 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B132">
         <v>195465</v>
       </c>
       <c r="C132" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D132">
         <v>195465</v>
@@ -3930,13 +3930,13 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B133">
         <v>195465</v>
       </c>
       <c r="C133" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D133">
         <v>195465</v>
@@ -3953,13 +3953,13 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B134">
         <v>345663</v>
       </c>
       <c r="C134" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D134">
         <v>345663</v>
@@ -3976,13 +3976,13 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B135">
         <v>345663</v>
       </c>
       <c r="C135" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D135">
         <v>345663</v>
@@ -3999,13 +3999,13 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B136">
         <v>390932</v>
       </c>
       <c r="C136" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D136">
         <v>234946</v>
@@ -4022,13 +4022,13 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B137">
         <v>390932</v>
       </c>
       <c r="C137" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D137">
         <v>234946</v>
@@ -4045,13 +4045,13 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B138">
         <v>365554</v>
       </c>
       <c r="C138" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D138">
         <v>365554</v>
@@ -4068,13 +4068,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B139">
         <v>365554</v>
       </c>
       <c r="C139" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D139">
         <v>365554</v>
@@ -4091,13 +4091,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B140">
         <v>465872</v>
       </c>
       <c r="C140" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D140">
         <v>259679</v>
@@ -4114,13 +4114,13 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B141">
         <v>465872</v>
       </c>
       <c r="C141" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D141">
         <v>259679</v>
@@ -4137,13 +4137,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B142">
         <v>701411</v>
       </c>
       <c r="C142" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D142">
         <v>701411</v>
@@ -4160,13 +4160,13 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B143">
         <v>701411</v>
       </c>
       <c r="C143" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D143">
         <v>701411</v>
@@ -4183,13 +4183,13 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B144">
         <v>455368</v>
       </c>
       <c r="C144" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D144">
         <v>455368</v>
@@ -4206,13 +4206,13 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B145">
         <v>455368</v>
       </c>
       <c r="C145" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D145">
         <v>455368</v>
@@ -4229,13 +4229,13 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B146">
         <v>674229</v>
       </c>
       <c r="C146" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D146">
         <v>674229</v>
@@ -4252,13 +4252,13 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B147">
         <v>674229</v>
       </c>
       <c r="C147" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D147">
         <v>674229</v>
@@ -4275,13 +4275,13 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B148">
         <v>369145</v>
       </c>
       <c r="C148" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D148">
         <v>259679</v>
@@ -4298,13 +4298,13 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B149">
         <v>369145</v>
       </c>
       <c r="C149" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D149">
         <v>259679</v>
@@ -4321,13 +4321,13 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B150">
         <v>448345</v>
       </c>
       <c r="C150" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D150">
         <v>234850</v>
@@ -4344,13 +4344,13 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B151">
         <v>448345</v>
       </c>
       <c r="C151" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D151">
         <v>448345</v>
@@ -4367,13 +4367,13 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B152">
         <v>815997</v>
       </c>
       <c r="C152" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D152">
         <v>815997</v>
@@ -4390,13 +4390,13 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B153">
         <v>815997</v>
       </c>
       <c r="C153" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D153">
         <v>815997</v>
@@ -4413,13 +4413,13 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B154">
         <v>211138</v>
       </c>
       <c r="C154" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D154">
         <v>637145</v>
@@ -4436,13 +4436,13 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B155">
         <v>211138</v>
       </c>
       <c r="C155" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D155">
         <v>637145</v>
@@ -4459,13 +4459,13 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B156">
         <v>366796</v>
       </c>
       <c r="C156" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D156">
         <v>366796</v>
@@ -4482,13 +4482,13 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B157">
         <v>366796</v>
       </c>
       <c r="C157" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D157">
         <v>366796</v>
@@ -4505,13 +4505,13 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B158">
         <v>217250</v>
       </c>
       <c r="C158" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D158">
         <v>234850</v>
@@ -4528,13 +4528,13 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B159">
         <v>217250</v>
       </c>
       <c r="C159" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D159">
         <v>217250</v>
@@ -4551,13 +4551,13 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B160">
         <v>416742</v>
       </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D160">
         <v>416742</v>
@@ -4574,13 +4574,13 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B161">
         <v>416742</v>
       </c>
       <c r="C161" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D161">
         <v>416742</v>
@@ -4597,13 +4597,13 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B162">
         <v>562808</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D162">
         <v>562808</v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B163">
         <v>562808</v>
       </c>
       <c r="C163" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D163">
         <v>562808</v>
@@ -4643,13 +4643,13 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B164">
         <v>195489</v>
       </c>
       <c r="C164" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D164">
         <v>195489</v>
@@ -4666,13 +4666,13 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B165">
         <v>195489</v>
       </c>
       <c r="C165" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D165">
         <v>195489</v>
@@ -4689,13 +4689,13 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B166">
         <v>471332</v>
       </c>
       <c r="C166" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D166">
         <v>471332</v>
@@ -4712,13 +4712,13 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B167">
         <v>471332</v>
       </c>
       <c r="C167" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D167">
         <v>471332</v>
@@ -4735,13 +4735,13 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B168">
         <v>424213</v>
       </c>
       <c r="C168" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D168">
         <v>424213</v>
@@ -4758,13 +4758,13 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B169">
         <v>424213</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D169">
         <v>424213</v>
@@ -4781,13 +4781,13 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B170">
         <v>228231</v>
       </c>
       <c r="C170" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D170">
         <v>228231</v>
@@ -4804,13 +4804,13 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B171">
         <v>228231</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D171">
         <v>228231</v>
@@ -4827,13 +4827,13 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B172">
         <v>371016</v>
       </c>
       <c r="C172" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D172">
         <v>371016</v>
@@ -4850,13 +4850,13 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B173">
         <v>371016</v>
       </c>
       <c r="C173" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D173">
         <v>371016</v>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B174">
         <v>471569</v>
       </c>
       <c r="C174" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D174">
         <v>471569</v>
@@ -4896,13 +4896,13 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B175">
         <v>471569</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D175">
         <v>471569</v>
@@ -4919,13 +4919,13 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B176">
         <v>339463</v>
       </c>
       <c r="C176" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D176">
         <v>339463</v>
@@ -4942,13 +4942,13 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B177">
         <v>339463</v>
       </c>
       <c r="C177" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D177">
         <v>339463</v>
@@ -4965,13 +4965,13 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B178">
         <v>232298</v>
       </c>
       <c r="C178" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D178">
         <v>234850</v>
@@ -4988,13 +4988,13 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B179">
         <v>232298</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D179">
         <v>234850</v>
@@ -5011,13 +5011,13 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B180">
         <v>846055</v>
       </c>
       <c r="C180" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D180">
         <v>234946</v>
@@ -5034,13 +5034,13 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B181">
         <v>846055</v>
       </c>
       <c r="C181" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D181">
         <v>234946</v>
@@ -5057,13 +5057,13 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B182">
         <v>460592</v>
       </c>
       <c r="C182" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D182">
         <v>460592</v>
@@ -5080,13 +5080,13 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B183">
         <v>460592</v>
       </c>
       <c r="C183" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D183">
         <v>460592</v>
@@ -5103,13 +5103,13 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B184">
         <v>379656</v>
       </c>
       <c r="C184" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D184">
         <v>637145</v>
@@ -5126,13 +5126,13 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B185">
         <v>379656</v>
       </c>
       <c r="C185" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D185">
         <v>637145</v>
@@ -5149,13 +5149,13 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B186">
         <v>232580</v>
       </c>
       <c r="C186" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D186">
         <v>232580</v>
@@ -5172,13 +5172,13 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B187">
         <v>232580</v>
       </c>
       <c r="C187" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D187">
         <v>232580</v>
@@ -5195,13 +5195,13 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B188">
         <v>185657</v>
       </c>
       <c r="C188" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D188">
         <v>185657</v>
@@ -5218,13 +5218,13 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B189">
         <v>185657</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D189">
         <v>185657</v>
@@ -5241,13 +5241,13 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B190">
         <v>400947</v>
       </c>
       <c r="C190" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D190">
         <v>400947</v>
@@ -5264,13 +5264,13 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B191">
         <v>400947</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D191">
         <v>400947</v>
@@ -5287,13 +5287,13 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B192">
         <v>817113</v>
       </c>
       <c r="C192" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D192">
         <v>817113</v>
@@ -5310,13 +5310,13 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B193">
         <v>817113</v>
       </c>
       <c r="C193" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D193">
         <v>817113</v>
@@ -5333,13 +5333,13 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B194">
         <v>744412</v>
       </c>
       <c r="C194" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D194">
         <v>744412</v>
@@ -5356,13 +5356,13 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B195">
         <v>744412</v>
       </c>
       <c r="C195" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D195">
         <v>744412</v>
@@ -5379,13 +5379,13 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B196">
         <v>232607</v>
       </c>
       <c r="C196" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D196">
         <v>232607</v>
@@ -5402,13 +5402,13 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B197">
         <v>232607</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D197">
         <v>232607</v>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B198">
         <v>318324</v>
       </c>
       <c r="C198" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D198">
         <v>318324</v>
@@ -5448,13 +5448,13 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B199">
         <v>318324</v>
       </c>
       <c r="C199" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D199">
         <v>318324</v>
@@ -5471,13 +5471,13 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B200">
         <v>224403</v>
       </c>
       <c r="C200" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D200">
         <v>224403</v>
@@ -5494,13 +5494,13 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B201">
         <v>224403</v>
       </c>
       <c r="C201" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D201">
         <v>224403</v>
@@ -5517,13 +5517,13 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B202">
         <v>563156</v>
       </c>
       <c r="C202" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D202">
         <v>563156</v>
@@ -5540,13 +5540,13 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B203">
         <v>563156</v>
       </c>
       <c r="C203" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D203">
         <v>563156</v>
@@ -5563,13 +5563,13 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B204">
         <v>43104</v>
       </c>
       <c r="C204" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D204">
         <v>43104</v>
@@ -5586,13 +5586,13 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B205">
         <v>43104</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D205">
         <v>43104</v>
@@ -5609,13 +5609,13 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B206">
         <v>781139</v>
       </c>
       <c r="C206" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D206">
         <v>816875</v>
@@ -5632,13 +5632,13 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B207">
         <v>781139</v>
       </c>
       <c r="C207" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D207">
         <v>816875</v>
@@ -5655,13 +5655,13 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B208">
         <v>563906</v>
       </c>
       <c r="C208" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D208">
         <v>563906</v>
@@ -5678,13 +5678,13 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B209">
         <v>563906</v>
       </c>
       <c r="C209" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D209">
         <v>563906</v>
@@ -5701,13 +5701,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B210">
         <v>195472</v>
       </c>
       <c r="C210" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D210">
         <v>195496</v>
@@ -5724,13 +5724,13 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B211">
         <v>195472</v>
       </c>
       <c r="C211" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D211">
         <v>195496</v>
@@ -5747,13 +5747,13 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B212">
         <v>298828</v>
       </c>
       <c r="C212" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D212">
         <v>298828</v>
@@ -5770,13 +5770,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B213">
         <v>298828</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D213">
         <v>298828</v>
@@ -5793,13 +5793,13 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B214">
         <v>560788</v>
       </c>
       <c r="C214" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D214">
         <v>560788</v>
@@ -5816,13 +5816,13 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B215">
         <v>560788</v>
       </c>
       <c r="C215" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D215">
         <v>560788</v>
@@ -5839,13 +5839,13 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B216">
         <v>195496</v>
       </c>
       <c r="C216" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D216">
         <v>195496</v>
@@ -5862,13 +5862,13 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B217">
         <v>195496</v>
       </c>
       <c r="C217" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D217">
         <v>195496</v>
@@ -5885,13 +5885,13 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B218">
         <v>517400</v>
       </c>
       <c r="C218" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D218">
         <v>517400</v>
@@ -5908,13 +5908,13 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B219">
         <v>517400</v>
       </c>
       <c r="C219" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D219">
         <v>517400</v>
@@ -5931,13 +5931,13 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B220">
         <v>234946</v>
       </c>
       <c r="C220" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D220">
         <v>234946</v>
@@ -5954,13 +5954,13 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B221">
         <v>234946</v>
       </c>
       <c r="C221" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D221">
         <v>234946</v>
@@ -5977,13 +5977,13 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B222">
         <v>438850</v>
       </c>
       <c r="C222" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D222">
         <v>438850</v>
@@ -6000,13 +6000,13 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B223">
         <v>438850</v>
       </c>
       <c r="C223" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D223">
         <v>438850</v>
@@ -6023,13 +6023,13 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B224">
         <v>382409</v>
       </c>
       <c r="C224" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D224">
         <v>382409</v>
@@ -6046,13 +6046,13 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B225">
         <v>382409</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D225">
         <v>382409</v>
@@ -6069,13 +6069,13 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B226">
         <v>195537</v>
       </c>
       <c r="C226" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D226">
         <v>195537</v>
@@ -6092,13 +6092,13 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B227">
         <v>195537</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D227">
         <v>195537</v>
@@ -6115,13 +6115,13 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B228">
         <v>292771</v>
       </c>
       <c r="C228" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D228">
         <v>195496</v>
@@ -6138,13 +6138,13 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B229">
         <v>292771</v>
       </c>
       <c r="C229" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D229">
         <v>195496</v>
@@ -6161,13 +6161,13 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B230">
         <v>497583</v>
       </c>
       <c r="C230" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D230">
         <v>195496</v>
@@ -6184,13 +6184,13 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B231">
         <v>497583</v>
       </c>
       <c r="C231" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D231">
         <v>195496</v>
@@ -6207,13 +6207,13 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B232">
         <v>659591</v>
       </c>
       <c r="C232" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D232">
         <v>259679</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B233">
         <v>659591</v>
       </c>
       <c r="C233" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D233">
         <v>259679</v>
@@ -6253,13 +6253,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B234">
         <v>235617</v>
       </c>
       <c r="C234" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D234">
         <v>339463</v>
@@ -6276,13 +6276,13 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B235">
         <v>235617</v>
       </c>
       <c r="C235" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D235">
         <v>339463</v>
@@ -6299,13 +6299,13 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B236">
         <v>475776</v>
       </c>
       <c r="C236" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D236">
         <v>339463</v>
@@ -6322,13 +6322,13 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B237">
         <v>475776</v>
       </c>
       <c r="C237" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D237">
         <v>339463</v>
@@ -6345,13 +6345,13 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B238">
         <v>621184</v>
       </c>
       <c r="C238" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D238">
         <v>621184</v>
@@ -6368,13 +6368,13 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B239">
         <v>621184</v>
       </c>
       <c r="C239" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D239">
         <v>621184</v>
@@ -6391,13 +6391,13 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B240">
         <v>852649</v>
       </c>
       <c r="C240" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D240">
         <v>852649</v>
@@ -6414,13 +6414,13 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B241">
         <v>852649</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D241">
         <v>852649</v>
@@ -6437,13 +6437,13 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B242">
         <v>177463</v>
       </c>
       <c r="C242" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D242">
         <v>177463</v>
@@ -6460,13 +6460,13 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B243">
         <v>177463</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D243">
         <v>177463</v>
@@ -6483,13 +6483,13 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B244">
         <v>268374</v>
       </c>
       <c r="C244" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D244">
         <v>268374</v>
@@ -6506,13 +6506,13 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B245">
         <v>268374</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D245">
         <v>268374</v>
@@ -6529,13 +6529,13 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B246">
         <v>736719</v>
       </c>
       <c r="C246" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D246">
         <v>736719</v>
@@ -6552,13 +6552,13 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B247">
         <v>736719</v>
       </c>
       <c r="C247" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D247">
         <v>736719</v>
@@ -6575,13 +6575,13 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B248">
         <v>227860</v>
       </c>
       <c r="C248" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D248">
         <v>227860</v>
@@ -6598,13 +6598,13 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B249">
         <v>227860</v>
       </c>
       <c r="C249" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D249">
         <v>227860</v>
@@ -6621,13 +6621,13 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B250">
         <v>103147</v>
       </c>
       <c r="C250" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D250">
         <v>637145</v>
@@ -6644,13 +6644,13 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B251">
         <v>103147</v>
       </c>
       <c r="C251" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D251">
         <v>637145</v>
@@ -6667,13 +6667,13 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B252">
         <v>209396</v>
       </c>
       <c r="C252" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D252">
         <v>209396</v>
@@ -6690,13 +6690,13 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A253" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B253">
         <v>209396</v>
       </c>
       <c r="C253" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D253">
         <v>209396</v>
@@ -6713,13 +6713,13 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B254">
         <v>545334</v>
       </c>
       <c r="C254" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D254">
         <v>545334</v>
@@ -6736,13 +6736,13 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B255">
         <v>545334</v>
       </c>
       <c r="C255" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D255">
         <v>545334</v>
@@ -6759,13 +6759,13 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B256">
         <v>624161</v>
       </c>
       <c r="C256" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D256">
         <v>624161</v>
@@ -6782,13 +6782,13 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B257">
         <v>624161</v>
       </c>
       <c r="C257" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D257">
         <v>624161</v>
@@ -6805,13 +6805,13 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A258" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B258">
         <v>245068</v>
       </c>
       <c r="C258" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D258">
         <v>245068</v>
@@ -6828,13 +6828,13 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B259">
         <v>245068</v>
       </c>
       <c r="C259" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D259">
         <v>245068</v>
@@ -6851,13 +6851,13 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B260">
         <v>228015</v>
       </c>
       <c r="C260" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D260">
         <v>228015</v>
@@ -6874,13 +6874,13 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B261">
         <v>228015</v>
       </c>
       <c r="C261" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D261">
         <v>228015</v>
@@ -6897,13 +6897,13 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B262">
         <v>886493</v>
       </c>
       <c r="C262" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D262">
         <v>886493</v>
@@ -6920,13 +6920,13 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A263" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B263">
         <v>886493</v>
       </c>
       <c r="C263" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D263">
         <v>886493</v>
@@ -6943,13 +6943,13 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B264">
         <v>41047</v>
       </c>
       <c r="C264" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D264">
         <v>41047</v>
@@ -6966,13 +6966,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B265">
         <v>41047</v>
       </c>
       <c r="C265" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D265">
         <v>41047</v>
@@ -6989,13 +6989,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B266">
         <v>102050</v>
       </c>
       <c r="C266" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D266">
         <v>102050</v>
@@ -7012,13 +7012,13 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B267">
         <v>102050</v>
       </c>
       <c r="C267" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D267">
         <v>102050</v>
@@ -7035,13 +7035,13 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B268">
         <v>493880</v>
       </c>
       <c r="C268" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D268">
         <v>493880</v>
@@ -7058,13 +7058,13 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B269">
         <v>493880</v>
       </c>
       <c r="C269" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D269">
         <v>493880</v>
@@ -7081,13 +7081,13 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B270">
         <v>637145</v>
       </c>
       <c r="C270" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D270">
         <v>637145</v>
@@ -7104,13 +7104,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B271">
         <v>637145</v>
       </c>
       <c r="C271" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D271">
         <v>637145</v>
@@ -7127,13 +7127,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B272">
         <v>315404</v>
       </c>
       <c r="C272" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D272">
         <v>315404</v>
@@ -7150,13 +7150,13 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A273" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B273">
         <v>315404</v>
       </c>
       <c r="C273" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D273">
         <v>315404</v>
@@ -7173,13 +7173,13 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A274" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B274">
         <v>107581</v>
       </c>
       <c r="C274" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D274">
         <v>107581</v>
@@ -7196,13 +7196,13 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B275">
         <v>107581</v>
       </c>
       <c r="C275" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D275">
         <v>107581</v>
@@ -7219,13 +7219,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B276">
         <v>420219</v>
       </c>
       <c r="C276" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D276">
         <v>420219</v>
@@ -7242,13 +7242,13 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B277">
         <v>420219</v>
       </c>
       <c r="C277" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D277">
         <v>420219</v>
@@ -7265,13 +7265,13 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B278">
         <v>366774</v>
       </c>
       <c r="C278" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D278">
         <v>366774</v>
@@ -7288,13 +7288,13 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B279">
         <v>366774</v>
       </c>
       <c r="C279" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D279">
         <v>366774</v>
@@ -7311,13 +7311,13 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B280">
         <v>283922</v>
       </c>
       <c r="C280" t="s">
-        <v>1</v>
+        <v>147</v>
       </c>
       <c r="D280">
         <v>283922</v>
@@ -7334,13 +7334,13 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B281">
         <v>283922</v>
       </c>
       <c r="C281" t="s">
-        <v>2</v>
+        <v>148</v>
       </c>
       <c r="D281">
         <v>283922</v>
